--- a/src/static/reports/InfoMaterias.xlsx
+++ b/src/static/reports/InfoMaterias.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,6 +458,3370 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CALCULO I</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FISICA GENERAL I</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GEOMETRIA DESCRIPTIVA I</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INTRODUCCION A LA INGENIERIA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LABORATORIO DE FISICA GENERAL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GEOMETRIA DESCRIPTIVA II</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TOPICOS DE FISICA GENERAL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ALGEBRA LINEAL Y GEOMETRÍA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ELECTIVA SOCIO-HUMANISTICA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CALCULO III</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MECANICA APLICADA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DIBUJO DE PROYECTOS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1013</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TOPOGRAFIA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1014</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA PARA INGENIEROS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ELECTIVA SOCIO-HUMANISTICA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ECUACIONES DIFERENCIALES</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ESTATICA APLICADA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ESTADISTICA PARA INGENIEROS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1019</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TOPOGRAFIA APLICADA A OBRAS CIVILES</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>QUIMICA BASICA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CALCULO VECTORIAL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1022</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>RESISTENCIA DE MATERIALES</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MECANICA DE FLUIDOS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>QUIMICA APLICADA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1025</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HIDROLOGIA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GEOLOGIA PARA INGENIEROS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ELECTIVA SOCIO-HUMANISTICA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TECNOLOGIA DEL CONCRETO</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ESTRUCTURAS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HOMBRE INGENIERIA Y AMBIENTE</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1031</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MECANICA DE SUELOS I</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1032</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LABORATORIO DE FLUIDOS</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1033</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CONCRETO ARMADO</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1034</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HIDRAULICA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SANEAMIENTO AMBIENTAL</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MECANICA DE SUELOS II</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1037</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PROYECTOS VIALES I</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1038</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PROYECTOS ESTRUCTURALES DE CONCRETO ARMADO</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SISTEMAS DE ABASTECIMIENTO</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PROYECTOS VIALES II</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1041</v>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>METODOLOGIA DE LA INVESTIGACION (Civil)</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1042</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CLOACAS Y DRENAJES</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1043</v>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>INFRAESTRUCTURA VIAL</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1044</v>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TRABAJO DE GRADO</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1045</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ESTRUCTURAS DE ACERO</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1046</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>INSTALACIONES PARA EDIFICIOS</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BIOESTADISTICA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ELECTIVA-1 </t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EMBIOLOGIA </t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C50" t="n">
+        <v>7</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>HISTOLOGIA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EPIDEMIOLOGIA </t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FISIOLOGIA </t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MICROBIOLOGIA Y PARASITOLOGIA </t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ELECTIVA-2</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FARMACOLOGIA </t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FISIOPATOLOGIA </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GENETICA MEDICA</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INMUNOLOGIA </t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>PSICOLOGIA SOCUAL EN LA SALUD</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SEMIOLOGIA </t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOCIOLOGIA MEDICA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SALUD PUBLICA</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANATOMIA PATOLOGICA </t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CIRUGIA-1</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>INFECCIOSAS Y PARASITARIAS</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MEDICINA-1</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MEDICINA LEGAL Y DEONTOLOGIA MEDICA</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GINECOLOGIA Y OBSTETRICIA </t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>PEDIATRIA-1</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2026</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CIRUGIA-2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2027</v>
+      </c>
+      <c r="C71" t="n">
+        <v>6</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA Y OBSTETRICIA -2</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2028</v>
+      </c>
+      <c r="C72" t="n">
+        <v>6</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MEDICINA -2</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2029</v>
+      </c>
+      <c r="C73" t="n">
+        <v>6</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>PEDIATRIA-2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2030</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ELECTIVA-3</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2031</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MEDICINA COMUNITARIA </t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2032</v>
+      </c>
+      <c r="C76" t="n">
+        <v>8</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>OBSTETRICIA-3</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PEDIATRIA-3</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PROGRAMA MEDICO QUIRURGICO </t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2035</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERVICIO COMUNITARIO </t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2036</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MATEMATICA GENERAL</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C81" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>DERECHO CIVIL I</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3001</v>
+      </c>
+      <c r="C82" t="n">
+        <v>6</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DERECHO ROMANO I</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3004</v>
+      </c>
+      <c r="C83" t="n">
+        <v>6</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOCIOLOGÍA JURÍDICA</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3005</v>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ECONOMÍA POLÍTICA</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>3006</v>
+      </c>
+      <c r="C85" t="n">
+        <v>6</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DERECHO CIVIL II</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C86" t="n">
+        <v>6</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DERECHO PENAL I</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C87" t="n">
+        <v>6</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DERECHO INTERNACIONAL PÚBLICO</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C88" t="n">
+        <v>6</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CRIMINOLOGÍA</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C89" t="n">
+        <v>6</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DERECHO CIVIL III</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>3013</v>
+      </c>
+      <c r="C90" t="n">
+        <v>6</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DERECHO ADMINISTRATIVO II</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3014</v>
+      </c>
+      <c r="C91" t="n">
+        <v>6</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FINANZAS PÚBLICAS</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DERECHO PENAL II</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>3016</v>
+      </c>
+      <c r="C93" t="n">
+        <v>6</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FILOSOFÍA DEL DERECHO</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>3017</v>
+      </c>
+      <c r="C94" t="n">
+        <v>6</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>PRÁCTICA JURÍDICA I</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3018</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DERECHO CIVIL IV</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3019</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DERECHO PROCESAL CIVIL I</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>3020</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DERECHO MERCANTIL I</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>3021</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DERECHO DEL TRABAJO</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3022</v>
+      </c>
+      <c r="C99" t="n">
+        <v>6</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CONTRATOS Y GARANTÍAS</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3023</v>
+      </c>
+      <c r="C100" t="n">
+        <v>6</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>PRÁCTICA JURÍDICA II</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>3024</v>
+      </c>
+      <c r="C101" t="n">
+        <v>6</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DERECHO ADMINISTRATIVO III</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>3025</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DERECHO INTERNACIONAL PRIVADO</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>3026</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DERECHO PROCESAL CIVIL II</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>3027</v>
+      </c>
+      <c r="C104" t="n">
+        <v>6</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DERECHO MERCANTIL II</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>3028</v>
+      </c>
+      <c r="C105" t="n">
+        <v>6</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DERECHO PROCESAL PENAL</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3029</v>
+      </c>
+      <c r="C106" t="n">
+        <v>6</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>PRÁCTICA JURÍDICA III</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3030</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>LENGUA Y COMUNICACIÓN</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1004</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>professor3</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CALCULO II</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ingenieria</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>professor3</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">APRENDIENDO CON LA COMUNIDAD </t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C110" t="n">
+        <v>3</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>professor6</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANNATOMIA HUMANA </t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>11</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>professor6</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BIOQUIMICA</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>professor9</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DEMOGRAFIA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>medicina</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>professor9</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DERECHO CONSTITUCIONAL</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>3002</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>professor12</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DERECHO ADMINISTRATIVO I</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>3008</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>professor15</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>DERECHO ROMANO II</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>professor15</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>INTRODUCCIÓN AL DERECHO</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>3003</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>derecho</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>professor12</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
